--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>4.235842291661444</v>
+        <v>6.999605955210001</v>
       </c>
       <c r="R2">
-        <v>38.122580624953</v>
+        <v>62.99645359689001</v>
       </c>
       <c r="S2">
-        <v>1.499191302446182E-05</v>
+        <v>1.763098071874108E-05</v>
       </c>
       <c r="T2">
-        <v>1.530793835080255E-05</v>
+        <v>1.81176357457418E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>775.8091727117489</v>
+        <v>1217.4311640692</v>
       </c>
       <c r="R3">
-        <v>6982.28255440574</v>
+        <v>10956.8804766228</v>
       </c>
       <c r="S3">
-        <v>0.002745820745916437</v>
+        <v>0.003066530532925493</v>
       </c>
       <c r="T3">
-        <v>0.00280370187795646</v>
+        <v>0.003151173725672741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>35.49383871842966</v>
+        <v>21.745372051013</v>
       </c>
       <c r="R4">
-        <v>212.963032310578</v>
+        <v>130.472232306078</v>
       </c>
       <c r="S4">
-        <v>0.0001256233132235565</v>
+        <v>5.477340264674354E-05</v>
       </c>
       <c r="T4">
-        <v>8.551427831400435E-05</v>
+        <v>3.752351513279511E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>722.5770206001441</v>
+        <v>995.6033005174532</v>
       </c>
       <c r="R5">
-        <v>6503.193185401296</v>
+        <v>8960.429704657079</v>
       </c>
       <c r="S5">
-        <v>0.002557416235169396</v>
+        <v>0.002507778681723171</v>
       </c>
       <c r="T5">
-        <v>0.002611325852907291</v>
+        <v>0.002576999057012254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H6">
         <v>182.133932</v>
       </c>
       <c r="I6">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J6">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>22.34676088991155</v>
+        <v>30.76333178446</v>
       </c>
       <c r="R6">
-        <v>201.120848009204</v>
+        <v>276.86998606014</v>
       </c>
       <c r="S6">
-        <v>7.909187183373446E-05</v>
+        <v>7.748832048643177E-05</v>
       </c>
       <c r="T6">
-        <v>8.075910633318574E-05</v>
+        <v>7.962717375274388E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>4092.886581948132</v>
+        <v>5350.621029906039</v>
       </c>
       <c r="R7">
-        <v>36835.97923753318</v>
+        <v>48155.58926915436</v>
       </c>
       <c r="S7">
-        <v>0.01448595000251664</v>
+        <v>0.01347742956035211</v>
       </c>
       <c r="T7">
-        <v>0.0147913097701081</v>
+        <v>0.01384943716170021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>187.2525633136173</v>
+        <v>95.57110778270467</v>
       </c>
       <c r="R8">
-        <v>1123.515379881704</v>
+        <v>573.426646696228</v>
       </c>
       <c r="S8">
-        <v>0.0006627428382618491</v>
+        <v>0.0002407296024044596</v>
       </c>
       <c r="T8">
-        <v>0.0004511421810765426</v>
+        <v>0.0001649161900164063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>3812.053138919533</v>
+        <v>4375.685553659564</v>
       </c>
       <c r="R9">
-        <v>34308.4782502758</v>
+        <v>39381.16998293608</v>
       </c>
       <c r="S9">
-        <v>0.01349199643617801</v>
+        <v>0.01102171009646944</v>
       </c>
       <c r="T9">
-        <v>0.01377640394106242</v>
+        <v>0.01132593427492878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H10">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I10">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J10">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>420.9828534082969</v>
+        <v>264.270686659045</v>
       </c>
       <c r="R10">
-        <v>3788.845680674672</v>
+        <v>2378.436179931405</v>
       </c>
       <c r="S10">
-        <v>0.001489984255436342</v>
+        <v>0.0006656590972161802</v>
       </c>
       <c r="T10">
-        <v>0.001521392706098944</v>
+        <v>0.0006840327969607824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H11">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I11">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J11">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>77104.46629976339</v>
+        <v>45964.21166383152</v>
       </c>
       <c r="R11">
-        <v>693940.1966978704</v>
+        <v>413677.9049744837</v>
       </c>
       <c r="S11">
-        <v>0.2728957720732796</v>
+        <v>0.1157771072804389</v>
       </c>
       <c r="T11">
-        <v>0.2786483384926384</v>
+        <v>0.1189728178406426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>3527.585890417446</v>
+        <v>820.9982733814051</v>
       </c>
       <c r="R12">
-        <v>21165.51534250467</v>
+        <v>4925.989640288431</v>
       </c>
       <c r="S12">
-        <v>0.01248518174521403</v>
+        <v>0.002067974228939719</v>
       </c>
       <c r="T12">
-        <v>0.008498910585658357</v>
+        <v>0.001416703336367643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>71813.94277552282</v>
+        <v>37589.08280714284</v>
       </c>
       <c r="R13">
-        <v>646325.4849797053</v>
+        <v>338301.7452642856</v>
       </c>
       <c r="S13">
-        <v>0.254171026658319</v>
+        <v>0.09468138613068743</v>
       </c>
       <c r="T13">
-        <v>0.2595288806903557</v>
+        <v>0.09729480697544608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H14">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I14">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J14">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>30.46920570397384</v>
+        <v>88.15019764947</v>
       </c>
       <c r="R14">
-        <v>182.815234223843</v>
+        <v>528.90118589682</v>
       </c>
       <c r="S14">
-        <v>0.0001078396338639988</v>
+        <v>0.0002220374182569814</v>
       </c>
       <c r="T14">
-        <v>7.340857542194702E-05</v>
+        <v>0.0001521107694869116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H15">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I15">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J15">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>5580.54045518118</v>
+        <v>15331.83416667127</v>
       </c>
       <c r="R15">
-        <v>33483.24273108708</v>
+        <v>91991.00500002761</v>
       </c>
       <c r="S15">
-        <v>0.01975120209226469</v>
+        <v>0.03861864143571021</v>
       </c>
       <c r="T15">
-        <v>0.01344503459917781</v>
+        <v>0.02645640231020072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H16">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I16">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J16">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>255.3138192289295</v>
+        <v>273.852393480991</v>
       </c>
       <c r="R16">
-        <v>1021.255276915718</v>
+        <v>1095.409573923964</v>
       </c>
       <c r="S16">
-        <v>0.000903631983503792</v>
+        <v>0.0006897940112829665</v>
       </c>
       <c r="T16">
-        <v>0.0004100801300220709</v>
+        <v>0.0003150372841580462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>5197.631630660819</v>
+        <v>12538.22404899151</v>
       </c>
       <c r="R17">
-        <v>31185.78978396491</v>
+        <v>75229.34429394903</v>
       </c>
       <c r="S17">
-        <v>0.01839597321492693</v>
+        <v>0.0315819473081171</v>
       </c>
       <c r="T17">
-        <v>0.01252250345092192</v>
+        <v>0.02163578708779974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H18">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I18">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J18">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>300.0618271654037</v>
+        <v>849.405513184195</v>
       </c>
       <c r="R18">
-        <v>2700.556444488633</v>
+        <v>7644.649618657755</v>
       </c>
       <c r="S18">
-        <v>0.001062008569979209</v>
+        <v>0.002139527899309242</v>
       </c>
       <c r="T18">
-        <v>0.001084395413096343</v>
+        <v>0.002198583718393677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H19">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I19">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J19">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>54957.36192866119</v>
+        <v>147735.8510321466</v>
       </c>
       <c r="R19">
-        <v>494616.2573579507</v>
+        <v>1329622.65928932</v>
       </c>
       <c r="S19">
-        <v>0.1945105443869558</v>
+        <v>0.3721249392725902</v>
       </c>
       <c r="T19">
-        <v>0.1986107721675134</v>
+        <v>0.382396430986993</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H20">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I20">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J20">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>2514.339620229043</v>
+        <v>2638.8112451707</v>
       </c>
       <c r="R20">
-        <v>15086.03772137426</v>
+        <v>15832.8674710242</v>
       </c>
       <c r="S20">
-        <v>0.008899000081905074</v>
+        <v>0.006646778473204199</v>
       </c>
       <c r="T20">
-        <v>0.006057725673626633</v>
+        <v>0.004553496415626514</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H21">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I21">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J21">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>51186.46213430418</v>
+        <v>120816.9342410553</v>
       </c>
       <c r="R21">
-        <v>460678.1592087376</v>
+        <v>1087352.408169498</v>
       </c>
       <c r="S21">
-        <v>0.1811642019482274</v>
+        <v>0.3043201362665204</v>
       </c>
       <c r="T21">
-        <v>0.1849830925693597</v>
+        <v>0.3127200617439627</v>
       </c>
     </row>
   </sheetData>
